--- a/202108_JS/JS_UnderstandWeirdParts.xlsx
+++ b/202108_JS/JS_UnderstandWeirdParts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\202108_NodeJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD824258-FF66-4D98-8C22-28BA1DC070B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B299F-6FD6-4079-ACA8-679129300C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="842">
   <si>
     <t>JavaScript: Understanding the Weird Parts</t>
   </si>
@@ -3588,9 +3588,6 @@
     <t>console.log(arr2);</t>
   </si>
   <si>
-    <t>// [2, 4, 6]</t>
-  </si>
-  <si>
     <t>// create new array from original array by fn()</t>
   </si>
   <si>
@@ -3598,9 +3595,6 @@
   </si>
   <si>
     <t>console.log(arr4);</t>
-  </si>
-  <si>
-    <t>// [false, true, true]</t>
   </si>
   <si>
     <r>
@@ -3730,13 +3724,1788 @@
   </si>
   <si>
     <t>Functional Programming 2</t>
+  </si>
+  <si>
+    <t>=&gt; [2, 4, 6]</t>
+  </si>
+  <si>
+    <t>=&gt; [false, true, true]</t>
+  </si>
+  <si>
+    <t>Conceptual Aside: Classical vs Prototypal Inheritance</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>One object gets access to the properties and methods of another object.</t>
+  </si>
+  <si>
+    <t>Classical Inheritance</t>
+  </si>
+  <si>
+    <t>It already exists in other languages C#, Java…</t>
+  </si>
+  <si>
+    <t>It is verbose (dài dòng). Ex. Friend, protected, private, interface…</t>
+  </si>
+  <si>
+    <t>Prototypal Inheritance</t>
+  </si>
+  <si>
+    <t>Simple = Flexible, extensible, easy to use. &lt;= Javascript</t>
+  </si>
+  <si>
+    <t>Understand The Prototype</t>
+  </si>
+  <si>
+    <t>obj.prop1</t>
+  </si>
+  <si>
+    <t>obj.prop2</t>
+  </si>
+  <si>
+    <t>obj.prop3</t>
+  </si>
+  <si>
+    <t>The prototype chain</t>
+  </si>
+  <si>
+    <t>Javascript seaches prototype chain for properties.</t>
+  </si>
+  <si>
+    <t>Objects can share all the protype if they want to.</t>
+  </si>
+  <si>
+    <t>obj2.prop2</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   name: 'Default',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   getFullName: function() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return this.name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   name: 'John'</t>
+  </si>
+  <si>
+    <t>// Don't do this EVER! For demo purposes only!</t>
+  </si>
+  <si>
+    <t>john.__proto__ = person;</t>
+  </si>
+  <si>
+    <t>console.log(john.getFullName());</t>
+  </si>
+  <si>
+    <t>console.log(john.name);</t>
+  </si>
+  <si>
+    <t>=&gt; John</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>john</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <t>Everything is an Object (or a Primitive)</t>
+  </si>
+  <si>
+    <t>Classical &amp; Prototypal Inheritance; Prototype chain;</t>
+  </si>
+  <si>
+    <t>Object {}</t>
+  </si>
+  <si>
+    <t>The based object. The very bottom of prototype chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let a = {}; </t>
+  </si>
+  <si>
+    <t>=&gt; a.__proto__ = Object {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let b = function() {}; </t>
+  </si>
+  <si>
+    <t>=&gt; b.__proto__ = function Empty() {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let c = []; </t>
+  </si>
+  <si>
+    <t>=&gt; c.__proto__ = []</t>
+  </si>
+  <si>
+    <t>=&gt; b.__proto__.__proto__ = Object {}</t>
+  </si>
+  <si>
+    <t>=&gt; c.__proto__.__proto__ = Object {}</t>
+  </si>
+  <si>
+    <t>Reflection And Extend</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>An object can look at itself,</t>
+  </si>
+  <si>
+    <t>listing and changing its properties and methods.</t>
+  </si>
+  <si>
+    <t>Example: List all properties (including proto)</t>
+  </si>
+  <si>
+    <t>for (let prop in john) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   console.log(prop + ': ' + john[prop]);</t>
+  </si>
+  <si>
+    <t>Example 2: List only object's properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      console.log(prop + ': ' + john[prop]);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   if (john.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hasOwnProperty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(prop)) {</t>
+    </r>
+  </si>
+  <si>
+    <t>Extend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can extend a given object with all the properties in passed-in objects. </t>
+  </si>
+  <si>
+    <t>Using underscore.js</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_.extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(john, jane, jim);</t>
+    </r>
+  </si>
+  <si>
+    <t>Function Constructors, 'new', and the History of JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript to attract Java developers, like VBScript &amp; VB</t>
+  </si>
+  <si>
+    <t>'new'</t>
+  </si>
+  <si>
+    <t>It is an operator.</t>
+  </si>
+  <si>
+    <t>When we call new, immediately an empty object is created.</t>
+  </si>
+  <si>
+    <r>
+      <t>then invoke the passed-in function (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a function constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   this.firstname = firstname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   this.lastname = lastname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   console.log('Function is invoked.');</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(firstname, lastname) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>john</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = new Person('John', 'Doe');</t>
+    </r>
+  </si>
+  <si>
+    <t>Function Constructors</t>
+  </si>
+  <si>
+    <t>A normal function that is used to construct objects.</t>
+  </si>
+  <si>
+    <t>The 'this' variable points a new empty object, and that object is returned from the function automatically.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var john = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Person();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Function Constructors and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.prototype'</t>
+    </r>
+  </si>
+  <si>
+    <t>When we use function constructors, prototype is set automatically.</t>
+  </si>
+  <si>
+    <t>console.log(john.__proto__)</t>
+  </si>
+  <si>
+    <t>since every function has prototype properties.</t>
+  </si>
+  <si>
+    <t>it is used only by the new operator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return this.firstname + ' ' + this.lastname;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getFullName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = function() {</t>
+    </r>
+  </si>
+  <si>
+    <t>used only by the new operator</t>
+  </si>
+  <si>
+    <t>It is better to put methods on prototype, because they only need one copy to be used.</t>
+  </si>
+  <si>
+    <t>Dangerous Aside: 'new' and functions</t>
+  </si>
+  <si>
+    <t>Object is undefined if we forgot keyword 'new'.</t>
+  </si>
+  <si>
+    <t>We can use JS-format extension like 'Linters'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conceptual Aside: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Built-in Function Constructors</t>
+    </r>
+  </si>
+  <si>
+    <t>var a = new String("John");</t>
+  </si>
+  <si>
+    <t>var b = new Number(3);</t>
+  </si>
+  <si>
+    <t>Some built-in function constructors are available already.</t>
+  </si>
+  <si>
+    <t>var c = new Date("2/3/2022");</t>
+  </si>
+  <si>
+    <t>&lt;= b is a Number object</t>
+  </si>
+  <si>
+    <t>&lt;= c is a Date object</t>
+  </si>
+  <si>
+    <t>&lt;= a is a String object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return this.length &gt; limit;</t>
+  </si>
+  <si>
+    <t>console.log("John".isLengthGreaterThan(3));</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isLengthGreaterThan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = function(limit) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Function Constructors; new; Function.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We can</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> add method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to prototype of any primitive object.</t>
+    </r>
+  </si>
+  <si>
+    <t>In general, we shouldn't use function constructors for these primitive types.</t>
+  </si>
+  <si>
+    <t>These objects (String, Number, Date…) that wraps a primitive type and adds a bunch of features.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dangerous Aside: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Built-in Function Constructors</t>
+    </r>
+  </si>
+  <si>
+    <t>let a = 3;</t>
+  </si>
+  <si>
+    <t>let b = new Number(3);</t>
+  </si>
+  <si>
+    <t>a == b;</t>
+  </si>
+  <si>
+    <t>a === b;</t>
+  </si>
+  <si>
+    <t>moment.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dangerous Aside: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays and for..in</t>
+    </r>
+  </si>
+  <si>
+    <t>Array has indexing properties (0, 1, 2…).</t>
+  </si>
+  <si>
+    <t>for (let prop in arr) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   console.log(prop + ': ' + arr[prop]);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Array, don't use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for..in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. =&gt; array indexes can be mis-understood with array properties/methods. </t>
+    </r>
+  </si>
+  <si>
+    <t>Object.create and Pure Prototypal Inheritance</t>
+  </si>
+  <si>
+    <t>let arr = ['John', 'Mike'];</t>
+  </si>
+  <si>
+    <t>=&gt; 0: 'John'</t>
+  </si>
+  <si>
+    <t>1: 'Mike'</t>
+  </si>
+  <si>
+    <t>isAwesome: 'cool';</t>
+  </si>
+  <si>
+    <t>Array.prototype.isAwesome = 'cool';</t>
+  </si>
+  <si>
+    <t>Object.create</t>
+  </si>
+  <si>
+    <t>Create an empty object with its prototype pointing to any object passed-in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   greet: function() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return 'Hi ' + this.name;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var john = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object.create(person)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Polyfill</t>
+  </si>
+  <si>
+    <t>Code that adds a feature which the engine may lack.</t>
+  </si>
+  <si>
+    <t>ES6 and Classes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Array vs. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for..in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+  </si>
+  <si>
+    <t>Object.create;</t>
+  </si>
+  <si>
+    <t>Javascript class is different from other programming language.</t>
+  </si>
+  <si>
+    <t>Class is an OBJECT! Not only a blue-print!</t>
+  </si>
+  <si>
+    <t>Use 'extends' to set Prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   constructor(firstname, lastname) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      this.firstname = firstname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      this.lastname = lastname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   greet() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return 'Hi ' + firstname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      super(firstname, lastname);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return 'Yo ' + firstname;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InformalPerson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>// sets the Prototype (__proto__)</t>
+  </si>
+  <si>
+    <t>// invoke super method</t>
+  </si>
+  <si>
+    <t>// override super method</t>
+  </si>
+  <si>
+    <t>ES6 Class, extends</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Transpile</t>
+  </si>
+  <si>
+    <t>Convert the syntax of one programming language to another.</t>
+  </si>
+  <si>
+    <t>Strongly-typed programming language provided by Microsoft.</t>
+  </si>
+  <si>
+    <t>Traceur</t>
+  </si>
+  <si>
+    <t>http://www.typescriptlang.org/</t>
+  </si>
+  <si>
+    <t>https://github.com/google/traceur-compiler</t>
+  </si>
+  <si>
+    <t>list of features existing or coming in ES6</t>
+  </si>
+  <si>
+    <t>https://github.com/lukehoban/es6features</t>
+  </si>
+  <si>
+    <t>ES6 In-depth Youtube series</t>
+  </si>
+  <si>
+    <t>https://youtube.com/tonyalicea</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <t>ES6 Promise, Async, Await</t>
+  </si>
+  <si>
+    <t>A standardized approach to dealing with asynchronous events and callbacks</t>
+  </si>
+  <si>
+    <t>A Promise object represents a future value - (resolve, reject).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   setTimeout(() =&gt; { resolve("Hi there!"); }, 3000);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   setTimeout(() =&gt; { resolve("How are you?"); }, 1000);</t>
+  </si>
+  <si>
+    <t>let a = new Promise(doWork);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   console.log(data);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return new Promise(doOtherWork);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   console.log(error);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doWork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(resolve, reject) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doOtherWork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(resolve, reject) { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((data) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>}).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((data) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>}).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((error) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>Promise.then return a Promise.</t>
+  </si>
+  <si>
+    <t>Async/Await</t>
+  </si>
+  <si>
+    <t>Thennable Object</t>
+  </si>
+  <si>
+    <t>An object that has a 'then' function</t>
+  </si>
+  <si>
+    <t>=&gt; Hi there!</t>
+  </si>
+  <si>
+    <t>=&gt; How are you?</t>
+  </si>
+  <si>
+    <t>Make promise code easier to write, to understand.</t>
+  </si>
+  <si>
+    <t>async/await tells the functions to wait for a promise.</t>
+  </si>
+  <si>
+    <t>The current function's execution context is paused.</t>
+  </si>
+  <si>
+    <t>JS continues to execute the next function.</t>
+  </si>
+  <si>
+    <t>Learn to love the weird parts</t>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>We can use literal to setup data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      firstname: 'John',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lastname: 'Doe',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      addresses: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         '111 Main St.',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         '222 Third St.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ]</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>people</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // the 'john' object</t>
+  </si>
+  <si>
+    <t>console.log(people);</t>
+  </si>
+  <si>
+    <t>typeof, instanceof, and Figuring Out What Something Is</t>
+  </si>
+  <si>
+    <t>typeof, instanceof</t>
+  </si>
+  <si>
+    <t>strict mode</t>
+  </si>
+  <si>
+    <t>typeof</t>
+  </si>
+  <si>
+    <t>return primitive type</t>
+  </si>
+  <si>
+    <t>typeof 3</t>
+  </si>
+  <si>
+    <t>typeof "abc"</t>
+  </si>
+  <si>
+    <t>typeof {}</t>
+  </si>
+  <si>
+    <t>typeof []</t>
+  </si>
+  <si>
+    <t>=&gt; string</t>
+  </si>
+  <si>
+    <t>=&gt; number</t>
+  </si>
+  <si>
+    <t>=&gt; object</t>
+  </si>
+  <si>
+    <t>typeof undefined</t>
+  </si>
+  <si>
+    <t>typeof null</t>
+  </si>
+  <si>
+    <t>instanceof</t>
+  </si>
+  <si>
+    <t>go down the prototype chain and tell if something has in its prototype chain.</t>
+  </si>
+  <si>
+    <t>e instanceof Person</t>
+  </si>
+  <si>
+    <t>let e = new Person('John');</t>
+  </si>
+  <si>
+    <t>Strict Mode</t>
+  </si>
+  <si>
+    <t>"use strict";</t>
+  </si>
+  <si>
+    <t>It can be placed on top of file or function.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Strict_mode</t>
+  </si>
+  <si>
+    <t>Read more about strict mode on the MDN (Mozilla Developer Network)</t>
+  </si>
+  <si>
+    <t>Learn From Other's Good Code</t>
+  </si>
+  <si>
+    <t>jQuery.com</t>
+  </si>
+  <si>
+    <t>Deep Dive Into Source Code: jQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Method Chaining</t>
+  </si>
+  <si>
+    <t>Calling one method after another, and each method affects the parent object.</t>
+  </si>
+  <si>
+    <t>So obj.method1().method2() where both methods end up with a 'this' variable pointing at 'obj'.</t>
+  </si>
+  <si>
+    <t>Greetr</t>
+  </si>
+  <si>
+    <t>Use case: show a greeting after someone login a Website.</t>
+  </si>
+  <si>
+    <t>When given a firstname, lastname, and optional language, it generates formal and informal greetings.</t>
+  </si>
+  <si>
+    <t>Support English and Spanish languages.</t>
+  </si>
+  <si>
+    <t>Reusable library/framework</t>
+  </si>
+  <si>
+    <t>Easy to type 'G$()' structure</t>
+  </si>
+  <si>
+    <t>Support jQuery</t>
+  </si>
+  <si>
+    <t>Structuring Safe Code</t>
+  </si>
+  <si>
+    <t>(function(global, $) {</t>
+  </si>
+  <si>
+    <t>}(window, jQuery));</t>
+  </si>
+  <si>
+    <t>Create an immediately-invoke-function which accepts a global window and jQuery arguments</t>
+  </si>
+  <si>
+    <t>Our Object and Its Prototype</t>
+  </si>
+  <si>
+    <t>Properties and Chainable Methods</t>
+  </si>
+  <si>
+    <t>1 - Wrap Greetr object initialization method into an exposed Greetr method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   so that user would not have to write 'new' when create new Greetr object.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = function(firstname, lastname, language) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  return new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr.init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(firstname, lastname, language);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Greetr.prototype;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>global.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = global.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   //... Safe code here</t>
+  </si>
+  <si>
+    <t>2 - Greetr.init is a function creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   let self = this;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   self.firstname = firstname || '';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   self.lastname = lastname || '';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   self.language = language || 'en';</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr.init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = function(firstname, lastname, language) {</t>
+    </r>
+  </si>
+  <si>
+    <t>3 - All methods should be placed in prototype for memory savings</t>
+  </si>
+  <si>
+    <t>4 - All object created by greetr.init function creator should has its prototype point to Greetr.prototype</t>
+  </si>
+  <si>
+    <t>5 - Expose Greetr and G$ identifiers,</t>
+  </si>
+  <si>
+    <t>Adding jQuery support</t>
+  </si>
+  <si>
+    <t>let g = G$('Tung', 'Bui', 'en');</t>
+  </si>
+  <si>
+    <t>g.greet().setLang('es').greet(true).log();</t>
+  </si>
+  <si>
+    <t>Good Commenting</t>
+  </si>
+  <si>
+    <t>Let's Use Our Framework/Library</t>
+  </si>
+  <si>
+    <t>=&gt; Greetr object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write methods inside </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr.prototype {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> literal</t>
+    </r>
+  </si>
+  <si>
+    <t>Declare variables which is hidden within the scope of the IIFE and never directly accessible</t>
+  </si>
+  <si>
+    <t>Ex. fullname, validate, greeting, formalGreeting, greet, log, setLang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   // … other methods here</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr.prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supportedLangs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ['en', 'es'];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greetr.prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9900CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: function() {</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3902,6 +5671,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9900CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3930,7 +5716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3955,6 +5741,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13057,6 +14847,1955 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67689FC7-34B6-4930-AE7F-8569165B681D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="2867025"/>
+          <a:ext cx="866775" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>obj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB18685A-F401-47F8-A66E-016B0DAF0518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="3429000"/>
+          <a:ext cx="666750" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>proto</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>{}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4895FF-3B88-4590-BC4C-89F2A5AE16FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6267450" y="3248025"/>
+          <a:ext cx="862013" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E780086B-47BB-47FD-9466-AE6962FA6849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="4171950"/>
+          <a:ext cx="666750" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>proto</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>{}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB588A60-4014-4E82-961E-A222196FB774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5829300" y="3914775"/>
+          <a:ext cx="438150" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669705AC-9ABA-4127-916B-A2C23AC0B712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="3505200"/>
+          <a:ext cx="790576" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Prop 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0889F0DF-5368-48AF-8428-B51732F10D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7129463" y="3248025"/>
+          <a:ext cx="485775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Oval 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C93E68-EE95-4E75-891D-E2D218640392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="4076700"/>
+          <a:ext cx="790576" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Prop 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599AA0C1-0A69-48D0-A3AF-E983487A72CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="3914775"/>
+          <a:ext cx="766763" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0304531-13D1-43B6-BA8A-9DDF34E9B560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="4838700"/>
+          <a:ext cx="790576" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Prop 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9CD674-ACFD-4CA6-B860-4BCDDA83AA17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="4657725"/>
+          <a:ext cx="690563" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296A3FD2-92D5-442A-96B4-A6CAE38DA588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5153025" y="2952750"/>
+          <a:ext cx="1152526" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8240031-6363-4C39-B0E2-5E6C6A63646E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2876550"/>
+          <a:ext cx="866775" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>obj 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803FF464-F1D1-4522-AF56-FC5446E2A1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6600825" y="3257550"/>
+          <a:ext cx="1785938" cy="414338"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF55D33A-CB55-4D54-87CE-539E5C6D7A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="4772025"/>
+          <a:ext cx="1866900" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Function</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>(a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> special type of object)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EC2C4F-065D-438A-9C20-CFEF782A6F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="5543550"/>
+          <a:ext cx="866775" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>prototype</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40F228A-343D-445B-8C78-430270DC96D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7415213" y="5248275"/>
+          <a:ext cx="223837" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C7CF7D-046E-4008-A144-001BF0A38D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982075" y="5534025"/>
+          <a:ext cx="1485900" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>optional</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>can be anonymous</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00A67A8-8092-4ED4-B2C5-D3667F8A7017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="4781550"/>
+          <a:ext cx="781050" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>CODE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E48CBE-5224-49C9-B89E-464F3D4F504A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="5010150"/>
+          <a:ext cx="1152525" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B8F2C9-B6F9-489F-9E18-AE3F8CDF9DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="5010150"/>
+          <a:ext cx="1381125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EDE4AB-5267-4885-913B-3FBFA8D2D4B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495924" y="4591050"/>
+          <a:ext cx="5953125" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Browser, NodeJS, etc. (C/C++ code)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233E0CE2-8ACD-4E48-9919-C567A3C188E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="5172075"/>
+          <a:ext cx="4305300" cy="2000249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Engine (C/C++ code)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DD610B-AD28-48B6-938D-E62A1C236ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677026" y="5514976"/>
+          <a:ext cx="2019300" cy="1514474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Execution Stack</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8170528A-8E73-4FD7-B668-DF6C134F5025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="6324600"/>
+          <a:ext cx="1533525" cy="390526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Global</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03DEFAD-FEDC-4597-9CCB-754A5D8266AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="5848351"/>
+          <a:ext cx="1533525" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>func1()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DE01AE-B113-4F04-AA73-50D2071C46DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896351" y="5514976"/>
+          <a:ext cx="1276349" cy="1514474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Queue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84CA18C-E28A-47FB-BDD9-9C75F3371BF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="6343651"/>
+          <a:ext cx="1000126" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Timer Ended</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76717B8F-DBFB-4C1B-9594-C688FB58C967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487025" y="4743450"/>
+          <a:ext cx="771525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Timer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7FD6E5-B952-4048-B82F-4BD1E8C7AF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10058401" y="5210175"/>
+          <a:ext cx="814387" cy="1319213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -13334,7 +17073,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13403,7 +17142,7 @@
         <v>319</v>
       </c>
       <c r="I10" s="3">
-        <v>44606</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -13413,6 +17152,9 @@
       <c r="H11" s="1" t="s">
         <v>548</v>
       </c>
+      <c r="I11" s="3">
+        <v>44612</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -13421,6 +17163,9 @@
       <c r="H12" s="1" t="s">
         <v>545</v>
       </c>
+      <c r="I12" s="3">
+        <v>44613</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -13429,6 +17174,9 @@
       <c r="H13" s="14" t="s">
         <v>524</v>
       </c>
+      <c r="I13" s="3">
+        <v>44615</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -13437,6 +17185,9 @@
       <c r="H14" s="1" t="s">
         <v>546</v>
       </c>
+      <c r="I14" s="3">
+        <v>44615</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -13445,6 +17196,9 @@
       <c r="H15" s="1" t="s">
         <v>547</v>
       </c>
+      <c r="I15" s="3">
+        <v>44616</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -13453,20 +17207,32 @@
       <c r="H16" s="14" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44614</v>
       </c>
     </row>
   </sheetData>
@@ -13490,10 +17256,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C1B607-0BA1-42E2-A3E6-879152AB7D78}">
-  <dimension ref="B4:D4"/>
+  <dimension ref="B4:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13506,6 +17272,249 @@
         <v>522</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="17" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="17" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="17" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="17" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="17" t="s">
+        <v>829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13513,21 +17522,253 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8280F65C-7813-4085-93C0-C366516B416B}">
-  <dimension ref="B4"/>
+  <dimension ref="B1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="18" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="17" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>753</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{7F73DA95-D503-42CE-84AE-248B62116DF2}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{D68ECFF1-0474-4084-A637-92ABD9353A7A}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{03EB45B9-3C99-4149-9662-322123AE2A72}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{904EF709-335C-4635-9BEF-84F714C771AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -13535,8 +17776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCADF2FE-B31F-4F18-8A98-85EF63B38D2F}">
   <dimension ref="B1:H172"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14784,8 +19025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47ADD4D-FDFC-4DA2-8B10-68181ADD2D9F}">
   <dimension ref="B1:P161"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15599,10 +19840,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4335AD-28EF-4D1F-BF30-E5645BAD2CDA}">
-  <dimension ref="B1:Q205"/>
+  <dimension ref="B1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16456,8 +20697,8 @@
       <c r="E175" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="J175" s="7" t="s">
-        <v>564</v>
+      <c r="J175" s="20" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
@@ -16499,7 +20740,7 @@
       <c r="E184" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="J184" s="7" t="s">
+      <c r="J184" s="20" t="s">
         <v>561</v>
       </c>
     </row>
@@ -16518,81 +20759,81 @@
         <v>562</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E189" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E190" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="191" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E191" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="192" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E192" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E193" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J193" s="10" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E195" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="J195" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
+      </c>
+      <c r="J195" s="20" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E196" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E197" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E198" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E199" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E200" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E201" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J201" s="10" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B203" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
@@ -16601,6 +20842,11 @@
       </c>
       <c r="F205" s="16" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -16612,14 +20858,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF5BDD2-9FD5-4FBE-B193-1B6B62757317}">
-  <dimension ref="B4:D4"/>
+  <dimension ref="B1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>618</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>233</v>
@@ -16628,40 +20889,853 @@
         <v>234</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>595</v>
+      </c>
+      <c r="N21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="N22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="N23" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="N24" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="17" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="17" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="24" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="17" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="17" t="s">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BCC04F-F486-4142-9936-33FF27BD67B6}">
-  <dimension ref="B4:D4"/>
+  <dimension ref="B1:P115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>647</v>
+      </c>
+      <c r="P27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="17" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C37" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D47" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D48" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="17" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D79" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D98" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D99" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D100" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D101" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D102" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D103" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D104" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D105" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D106" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D108" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D109" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D110" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D111" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D112" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA9C11E-C1BF-4547-9C06-9CA067870808}">
-  <dimension ref="B4:D4"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>769</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>517</v>
@@ -16670,17 +21744,202 @@
         <v>518</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="17" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="17" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="17" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="20" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{74C6558E-DD13-4B4E-BE8F-BCC7AC27BAD0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E36E8B4-F5E6-4C14-AE2C-6F6CE8278E5B}">
-  <dimension ref="B4:D4"/>
+  <dimension ref="B4:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16693,6 +21952,41 @@
         <v>520</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>797</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
